--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Downloads\Delicious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simona\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4BFDF-C548-46AD-B09F-210254B034F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205C2E42-5C81-4840-BCB1-1910F44AAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="300" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
     <sheet name="Pizze" sheetId="2" r:id="rId2"/>
-    <sheet name="Panini" sheetId="3" r:id="rId3"/>
+    <sheet name="hamburger" sheetId="3" r:id="rId3"/>
     <sheet name="Bibite" sheetId="4" r:id="rId4"/>
     <sheet name="Dolci" sheetId="5" r:id="rId5"/>
+    <sheet name="Impasti" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
   <si>
     <t>Nome</t>
   </si>
@@ -35,57 +36,15 @@
     <t>Prezzo</t>
   </si>
   <si>
-    <t>Bruschetta al pomodoro</t>
-  </si>
-  <si>
-    <t>Pane tostato con pomodoro fresco, basilico e olio EVO</t>
-  </si>
-  <si>
-    <t>4.00€</t>
-  </si>
-  <si>
-    <t>Panelle</t>
-  </si>
-  <si>
-    <t>Frittelle di farina di ceci tipiche di Palermo</t>
-  </si>
-  <si>
-    <t>3.50€</t>
-  </si>
-  <si>
     <t>Margherita</t>
   </si>
   <si>
-    <t>Pomodoro, mozzarella e basilico</t>
-  </si>
-  <si>
     <t>6.00€</t>
   </si>
   <si>
     <t>Diavola</t>
   </si>
   <si>
-    <t>Mozzarella, salame piccante e pomodoro</t>
-  </si>
-  <si>
-    <t>7.50€</t>
-  </si>
-  <si>
-    <t>Hamburger classico</t>
-  </si>
-  <si>
-    <t>Pane, hamburger, lattuga, pomodoro e maionese</t>
-  </si>
-  <si>
-    <t>5.50€</t>
-  </si>
-  <si>
-    <t>Panino con salsiccia</t>
-  </si>
-  <si>
-    <t>Salsiccia alla griglia con cipolla e senape</t>
-  </si>
-  <si>
     <t>Coca Cola</t>
   </si>
   <si>
@@ -116,26 +75,664 @@
     <t>Greta</t>
   </si>
   <si>
-    <t>Mozzarella, pomodoro, carciofi e funghi</t>
-  </si>
-  <si>
-    <t>8.00€</t>
-  </si>
-  <si>
     <t>Immagine</t>
   </si>
   <si>
     <t>margherita.jpg</t>
   </si>
   <si>
-    <t>cake.jpg</t>
+    <t>Kamut</t>
+  </si>
+  <si>
+    <t>Senatore cappelli</t>
+  </si>
+  <si>
+    <t>Stg(impasto napoletano)</t>
+  </si>
+  <si>
+    <t>Gluten free classico</t>
+  </si>
+  <si>
+    <t>Misto burger pizza</t>
+  </si>
+  <si>
+    <t>Misto siciliano</t>
+  </si>
+  <si>
+    <t>Pata bacon</t>
+  </si>
+  <si>
+    <t>Pata pig</t>
+  </si>
+  <si>
+    <t>Pata salsiccia</t>
+  </si>
+  <si>
+    <t>Pata porchetta</t>
+  </si>
+  <si>
+    <t>Mangia e bevi di pizza</t>
+  </si>
+  <si>
+    <t>Sushi pizza</t>
+  </si>
+  <si>
+    <t>Bruschettone</t>
+  </si>
+  <si>
+    <t>Sfincionello palermitano</t>
+  </si>
+  <si>
+    <t>Sfincionello bagherese</t>
+  </si>
+  <si>
+    <t>Crocchettone</t>
+  </si>
+  <si>
+    <t>Nuggets artigianali</t>
+  </si>
+  <si>
+    <t>Arancinette alla carne</t>
+  </si>
+  <si>
+    <t>Patatine classiche</t>
+  </si>
+  <si>
+    <t>Misto di frittura siciliana a fantasia dello chef</t>
+  </si>
+  <si>
+    <t>Patatine,panelle,crocchè,arancinette</t>
+  </si>
+  <si>
+    <t>patatina,bacon croccante,salsa cheddar</t>
+  </si>
+  <si>
+    <t>Patatine, mortadella,pesto di pistacchio</t>
+  </si>
+  <si>
+    <t>Patatine, porchetta, fonduta di formaggi misti</t>
+  </si>
+  <si>
+    <t>Patatine, salsiccia, fonduta di formaggi misti</t>
+  </si>
+  <si>
+    <t>Prosciutto crudo, speck, cipolla scalogno</t>
+  </si>
+  <si>
+    <t>Pan pizza,bruschetta classica</t>
+  </si>
+  <si>
+    <t>Pan pizza con crema alle erbe, tartare di salmone, pomodorino, menta</t>
+  </si>
+  <si>
+    <t>Primosale, acciughe, cipolla, ricotta, pangrattato, caciocavallo, origano, olio evo</t>
+  </si>
+  <si>
+    <t>Ragù di cipolla, acciughe, pangrattato, caciocavallo, origano, olio evo</t>
+  </si>
+  <si>
+    <t>Crocchè di patata fresca ripiena di mozzarella, gorgonzola, speck, fonduta di formaggi</t>
+  </si>
+  <si>
+    <t>10pz Crocchette di pollo</t>
+  </si>
+  <si>
+    <t>4 pz Arancinette con riso, ragù di carne</t>
+  </si>
+  <si>
+    <t>bruschettone.jpg</t>
+  </si>
+  <si>
+    <t>crocchettone.jpg</t>
+  </si>
+  <si>
+    <t>sushi_pizza.jpg</t>
+  </si>
+  <si>
+    <t>misto_burger_pizza.jpg</t>
+  </si>
+  <si>
+    <t>sfincionello_palermitano.jpg</t>
+  </si>
+  <si>
+    <t>sfincionello_bagherese.jpg</t>
+  </si>
+  <si>
+    <t>nuggets_artigianali.jpg</t>
+  </si>
+  <si>
+    <t>arancinette_alla_carne.jpg</t>
+  </si>
+  <si>
+    <t>patatine_classiche.jpg</t>
+  </si>
+  <si>
+    <t>misto_siciliano.jpg</t>
+  </si>
+  <si>
+    <t>pata_bacon.jpg</t>
+  </si>
+  <si>
+    <t>pata_pig.jpg</t>
+  </si>
+  <si>
+    <t>pata_salsiccia.jpg</t>
+  </si>
+  <si>
+    <t>pata_porchetta.jpg</t>
+  </si>
+  <si>
+    <t>mangia_e_bevi_di_pizza.jpg</t>
+  </si>
+  <si>
+    <t>Biancaneve</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Marinara</t>
+  </si>
+  <si>
+    <t>Romana</t>
+  </si>
+  <si>
+    <t>4 Gusti</t>
+  </si>
+  <si>
+    <t>Capricciosa</t>
+  </si>
+  <si>
+    <t>Sfiziosa</t>
+  </si>
+  <si>
+    <t>Parmigiana</t>
+  </si>
+  <si>
+    <t>4 Formaggi</t>
+  </si>
+  <si>
+    <t>Tonnara</t>
+  </si>
+  <si>
+    <t>La sicula</t>
+  </si>
+  <si>
+    <t>La parma</t>
+  </si>
+  <si>
+    <t>American chips</t>
+  </si>
+  <si>
+    <t>Chicken pizza</t>
+  </si>
+  <si>
+    <t>Salsiccia e friarielli</t>
+  </si>
+  <si>
+    <t>Vegetariana</t>
+  </si>
+  <si>
+    <t>La nazareno</t>
+  </si>
+  <si>
+    <t>Schiacciata</t>
+  </si>
+  <si>
+    <t>Porchettona</t>
+  </si>
+  <si>
+    <t>Bresaolina</t>
+  </si>
+  <si>
+    <t>Brie e Noci</t>
+  </si>
+  <si>
+    <t>Porcina</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Deliziosa</t>
+  </si>
+  <si>
+    <t>La solita</t>
+  </si>
+  <si>
+    <t>Burrata e lime</t>
+  </si>
+  <si>
+    <t>4 Spicchi</t>
+  </si>
+  <si>
+    <t>Norvegese</t>
+  </si>
+  <si>
+    <t>Pistacchiosa</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Quadrotta</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Marlena</t>
+  </si>
+  <si>
+    <t>Bouquet</t>
+  </si>
+  <si>
+    <t>La regina</t>
+  </si>
+  <si>
+    <t>Duchessa</t>
+  </si>
+  <si>
+    <t>Burger pizza</t>
+  </si>
+  <si>
+    <t>Bignè</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte</t>
+  </si>
+  <si>
+    <t>pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, olio evo, basilico</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., acciughe, aglio, origano, olio evo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, olive, wurstel, olio evo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, salame piccante, cipolla rossa, olive, olio al peperoncino</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, bacon, salame piccante, salsiccia, emmental</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, melenzane fritte, grana, basilico, olio evo</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, gorgonzola, emmental, grana</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, tonno, olive, cipolla rossa, origano</t>
+  </si>
+  <si>
+    <t>Pomodoro a fette, mozzarella fior di latte, cipolla, acciughe, pangrattato, caciocavallo, origano, olio evo</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, rucola, prosciutto crudo parma, grana, olio evo</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, emmental, birbe di pollo, patatine fritte, salsa bbq</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, bacon croccante, cheddar, patatine fritte, salsa bbq</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, salsiccia, friarielli, provolone affumicato</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, carciofi, pomodorini, zucchine, pesto di rucola</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, prosciutto cotto scelto, salame piccante, gorgonzola, melenzane fritte</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, pomodoro a fette, prosciutto cotto scelto, olio evo</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, porchetta artigianale, patate fresche, cipolla caramellata, emmental, salsa yogurt</t>
+  </si>
+  <si>
+    <t>Mozzarella di bufala D.O.P., rucola, pomodorini, bresaola, grana, olio evo</t>
+  </si>
+  <si>
+    <t>Mozzarella di bufala D.O.P., brie, prosciutto crudo di Parma, noci, scaglie</t>
+  </si>
+  <si>
+    <t>Mozzarella di bufala D.O.P., funghi porcini, speck, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella di bufala D.O.P., salsiccia, pomodorini, bacon, pesto di basilico, salame piccante, grana</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mozzarella di bufala D.O.P., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pomodorini, bresaola, noci, pesto di rucola</t>
+    </r>
+  </si>
+  <si>
+    <t>Mozzarella di bufala D.O.P., pomodorini, speck, grana, noci</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, mortadella, burrata al centro, pesto di pistacchio, granella di pistacchio</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, valeriana, salmone baffo, zeste di limone, burrata, aceto balsamico al centro</t>
+  </si>
+  <si>
+    <t>Mozzarella di bufala, rucola, crudo, grana - Mortadella, pesto di pistacchio - Bresaola, pomodorini, grana - speck, noci, miele</t>
+  </si>
+  <si>
+    <t>Bordo ripieno di crema al salmone, mozzarella fior di latte, salmone baffo, bufala, pomodorini, granella di pistacchio</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, mortadella, bufala stracciata, pesto di pistacchio, granella di pistacchio</t>
+  </si>
+  <si>
+    <r>
+      <t>Mozzarella fior di latte, prosciutto</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crudo di Parma, pomodorini, bufala stracciata, pesto di pistacchio, granela di pistacchio</t>
+    </r>
+  </si>
+  <si>
+    <t>Bordo ripieno di ricotta e salsiccia, mozzarella di bufala D.O.P., friarielli, salsiccia, grana</t>
+  </si>
+  <si>
+    <t>Pomodoro a fette condito, mozzarella fior di latte, speck, ricotta, granella di pistacchio, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, brie, speck, noci, miele</t>
+  </si>
+  <si>
+    <t>Bordo ripieno di ricotta e grana, mozzarella fior di latte, funghi, pomodorini, prosciutto crudo di Parma, grana</t>
+  </si>
+  <si>
+    <t>Mozzarella fior di latte, carciofi spinosi D.O.P., bignè di philadelphia, noci, grana</t>
+  </si>
+  <si>
+    <t>Bordo ripieno di philadelphia e pistacchio, mozzarella fior di latte, mortadella, pesto e granella di pistacchio, burrata</t>
+  </si>
+  <si>
+    <t>Scegli il condimento della pizza e dell'hamburger</t>
+  </si>
+  <si>
+    <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
+  </si>
+  <si>
+    <t>6.50€</t>
+  </si>
+  <si>
+    <t>marinara.jpg</t>
+  </si>
+  <si>
+    <t>napoli.jpg</t>
+  </si>
+  <si>
+    <t>biancaneve.jpg</t>
+  </si>
+  <si>
+    <t>romana.jpg</t>
+  </si>
+  <si>
+    <t>capricciosa.jpg</t>
+  </si>
+  <si>
+    <t>diavola.jpg</t>
+  </si>
+  <si>
+    <t>sfiziosa.jpg</t>
+  </si>
+  <si>
+    <t>parmigiana.jpg</t>
+  </si>
+  <si>
+    <t>tonnara.jpg</t>
+  </si>
+  <si>
+    <t>vegetariana.jpg</t>
+  </si>
+  <si>
+    <t>schiacciata.jpg</t>
+  </si>
+  <si>
+    <t>porchettona.jpg</t>
+  </si>
+  <si>
+    <t>bresaolina.jpg</t>
+  </si>
+  <si>
+    <t>4_gusti.jpg</t>
+  </si>
+  <si>
+    <t>4_formaggi.jpg</t>
+  </si>
+  <si>
+    <t>la_sicula.jpg</t>
+  </si>
+  <si>
+    <t>american_chips.jpg</t>
+  </si>
+  <si>
+    <t>chicken_pizza.jpg</t>
+  </si>
+  <si>
+    <t>la_nazareno.jpg</t>
+  </si>
+  <si>
+    <t>la_parma.jpg</t>
+  </si>
+  <si>
+    <t>salsiccia_e_friarielli.jpg</t>
+  </si>
+  <si>
+    <t>brie_e_Noci.jpg</t>
+  </si>
+  <si>
+    <t>porcina.jpg</t>
+  </si>
+  <si>
+    <t>chloe.jpg</t>
+  </si>
+  <si>
+    <t>greta.jpg</t>
+  </si>
+  <si>
+    <t>deliziosa.jpg</t>
+  </si>
+  <si>
+    <t>la_solita.jpg</t>
+  </si>
+  <si>
+    <t>burrata_e_lime.jpg</t>
+  </si>
+  <si>
+    <t>4_spicchi.jpg</t>
+  </si>
+  <si>
+    <t>norvegese.jpg</t>
+  </si>
+  <si>
+    <t>pistacchiosa.jpg</t>
+  </si>
+  <si>
+    <t>gigi.jpg</t>
+  </si>
+  <si>
+    <t>quadrotta.jpg</t>
+  </si>
+  <si>
+    <t>sandra.jpg</t>
+  </si>
+  <si>
+    <t>marlena.jpg</t>
+  </si>
+  <si>
+    <t>bouquet.jpg</t>
+  </si>
+  <si>
+    <t>la_regina.jpg</t>
+  </si>
+  <si>
+    <t>duchessa.jpg</t>
+  </si>
+  <si>
+    <t>burger_pizza.jpg</t>
+  </si>
+  <si>
+    <t>bignè.jpg</t>
+  </si>
+  <si>
+    <t>Gigi Burger</t>
+  </si>
+  <si>
+    <t>Box Burger</t>
+  </si>
+  <si>
+    <t>Burger Bacon</t>
+  </si>
+  <si>
+    <t>Porchettone</t>
+  </si>
+  <si>
+    <t>Chicken Burger</t>
+  </si>
+  <si>
+    <t>Burger Pizza</t>
+  </si>
+  <si>
+    <t>Scotta Burger</t>
+  </si>
+  <si>
+    <t>Vegan Burger</t>
+  </si>
+  <si>
+    <t>Porchi Burger</t>
+  </si>
+  <si>
+    <t>Burger Pig</t>
+  </si>
+  <si>
+    <t>Salmone</t>
+  </si>
+  <si>
+    <t>Cheese Burger</t>
+  </si>
+  <si>
+    <t>Double Cheese Burger</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 200gr, pomodoro, cipolla caramellata, lattuga, porhcetta artigianale, emmental, fonduta di formaggi</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, pomodoro, lattuga, maionese, patatine fritte, 5 nuggets, coca cola</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, bacon croccante, cheddar, cipolla caramellata, salsa bbq</t>
+  </si>
+  <si>
+    <t>Buns brioches, lattuga, pomodoro, porchetta artigianale, emmental, cipolla caramellata</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di pollo 150gr, pomodoro, lattuga, salsa bbq</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, prosciutto crudo di Parma, rucola, bufala, crema di noci</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di scottona prussiana 150gr, funghi freschi, provola affumicata, grana, rucola</t>
+  </si>
+  <si>
+    <t>Pan pizza, hamburger vegano 120gr, lattuga, pomodoro</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello 150gr, lattuga, pomodoro, porchetta artigianale, cipolla caramellata, salsa yogurt</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di salsiccia e vitello 150gr, mortadella, crema di pistacchio, bufala</t>
+  </si>
+  <si>
+    <t>Buns brioches, salmone, misticanza, zeste di lime, pomodori secchi, bufala</t>
+  </si>
+  <si>
+    <t>Buns brioches, hamburger di vitello, lattuga, pomodoro, cheddar, bacon, mayonese</t>
+  </si>
+  <si>
+    <t>Buns brioches, doppio hamburger 200gr, doppio bacon, doppio cheddar, doppia lattuga, doppio pomodoro, colata di salsa cheddar</t>
+  </si>
+  <si>
+    <t>gigi_burger.jpg</t>
+  </si>
+  <si>
+    <t>box_burger.jpg</t>
+  </si>
+  <si>
+    <t>burger_bacon.jpg</t>
+  </si>
+  <si>
+    <t>porchettone.jpg</t>
+  </si>
+  <si>
+    <t>chicken_burger.jpg</t>
+  </si>
+  <si>
+    <t>scotta_burger.jpg</t>
+  </si>
+  <si>
+    <t>vegan_burger.jpg</t>
+  </si>
+  <si>
+    <t>porchi_burger.jpg</t>
+  </si>
+  <si>
+    <t>burger_pig.jpg</t>
+  </si>
+  <si>
+    <t>salmone.jpg</t>
+  </si>
+  <si>
+    <t>cheese_burger.jpg</t>
+  </si>
+  <si>
+    <t>double_cheese_burger.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +750,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,6 +816,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,13 +1124,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -533,29 +1147,214 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,47 +1388,585 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>105</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="4">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="4">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="4">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="4">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -639,7 +1976,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="4">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -658,29 +2263,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -688,93 +2282,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+      <c r="B4" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simona\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burgerpizzatemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205C2E42-5C81-4840-BCB1-1910F44AAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F049199-66D1-47F4-A00D-AD30DDA64A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="300" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="243">
   <si>
     <t>Nome</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Margherita</t>
   </si>
   <si>
-    <t>6.00€</t>
-  </si>
-  <si>
     <t>Diavola</t>
   </si>
   <si>
@@ -342,22 +339,13 @@
     <t>Mozzarella fior di latte</t>
   </si>
   <si>
-    <t>pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
-  </si>
-  <si>
     <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, olio evo, basilico</t>
   </si>
   <si>
     <t>Pomodoro san marzano D.O.P., acciughe, aglio, origano, olio evo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
-  </si>
-  <si>
     <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, olive, wurstel, olio evo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
   </si>
   <si>
     <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, salame piccante, cipolla rossa, olive, olio al peperoncino</t>
@@ -488,9 +476,6 @@
     <t>Bordo ripieno con crema di pistacchio e philadelphia, mozzarella fior di latte, bresaola, bufala, pomodori secchi, granella di pistacchio</t>
   </si>
   <si>
-    <t>6.50€</t>
-  </si>
-  <si>
     <t>marinara.jpg</t>
   </si>
   <si>
@@ -723,6 +708,78 @@
   </si>
   <si>
     <t>double_cheese_burger.jpg</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto, carciofi, funghi, salame piccante, olive, wurstel, olio evo</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., mozzarella fior di latte, prosciutto cotto scelto</t>
+  </si>
+  <si>
+    <t>Pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>14.00</t>
   </si>
 </sst>
 </file>
@@ -806,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -819,7 +876,13 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1127,13 +1190,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,218 +1207,218 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.5</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.5</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.5</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7.5</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8.5</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.5</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.5</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1367,13 +1431,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1384,39 +1449,39 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>145</v>
+        <v>221</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,549 +1489,549 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.5</v>
+        <v>220</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.5</v>
+        <v>106</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9</v>
+        <v>219</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8.5</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8.5</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10</v>
+        <v>121</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10.5</v>
+        <v>124</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="4">
-        <v>11.5</v>
+        <v>125</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10</v>
+        <v>126</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="4">
-        <v>12</v>
+        <v>127</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="4">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="4">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="4">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10.5</v>
+        <v>131</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="4">
-        <v>11.5</v>
+        <v>132</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="4">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="4">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="4">
-        <v>11.5</v>
+        <v>136</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="4">
-        <v>13.5</v>
+        <v>137</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="4">
-        <v>13</v>
+        <v>138</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="4">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="4">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
+      <c r="C43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1979,12 +2044,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,193 +2060,193 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
+        <v>194</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
+        <v>195</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9</v>
+        <v>197</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.5</v>
+        <v>198</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12.5</v>
+        <v>199</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9</v>
+        <v>201</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="4">
-        <v>11</v>
+        <v>202</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="4">
-        <v>12.5</v>
+        <v>203</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
+        <v>204</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9</v>
+        <v>205</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="4">
-        <v>14</v>
+        <v>206</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,29 +2278,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2263,18 +2329,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2363,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4">
         <v>2</v>
@@ -2305,7 +2371,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -2313,7 +2379,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -2321,7 +2387,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>

--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burgerpizzatemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F049199-66D1-47F4-A00D-AD30DDA64A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DC27F-CB9D-4219-9850-31F0D68296C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
     <sheet name="Pizze" sheetId="2" r:id="rId2"/>
-    <sheet name="hamburger" sheetId="3" r:id="rId3"/>
+    <sheet name="Hamburger" sheetId="3" r:id="rId3"/>
     <sheet name="Bibite" sheetId="4" r:id="rId4"/>
     <sheet name="Dolci" sheetId="5" r:id="rId5"/>
     <sheet name="Impasti" sheetId="6" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="244">
   <si>
     <t>Nome</t>
   </si>
@@ -48,25 +48,16 @@
     <t>Bibita gassata classica</t>
   </si>
   <si>
-    <t>2.00€</t>
-  </si>
-  <si>
     <t>Acqua Naturale</t>
   </si>
   <si>
     <t>Bottiglia da 50cl</t>
   </si>
   <si>
-    <t>1.00€</t>
-  </si>
-  <si>
     <t>Cannolo Siciliano</t>
   </si>
   <si>
     <t>Ricotta dolce e scorza d’arancia candita</t>
-  </si>
-  <si>
-    <t>3.00€</t>
   </si>
   <si>
     <t>Greta</t>
@@ -781,14 +772,23 @@
   <si>
     <t>14.00</t>
   </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>Farina Kamut</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -863,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -874,14 +874,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1211,214 +1214,214 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1453,35 +1456,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,69 +1492,69 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,479 +1562,479 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>152</v>
+        <v>226</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>168</v>
+        <v>231</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2064,193 +2067,193 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2262,7 +2265,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,19 +2291,19 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2316,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,71 +2332,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burgerpizzatemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DC27F-CB9D-4219-9850-31F0D68296C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14995BB-1611-4067-8CC0-FF921A01D2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
-    <sheet name="Pizze" sheetId="2" r:id="rId2"/>
-    <sheet name="Hamburger" sheetId="3" r:id="rId3"/>
-    <sheet name="Bibite" sheetId="4" r:id="rId4"/>
-    <sheet name="Dolci" sheetId="5" r:id="rId5"/>
-    <sheet name="Impasti" sheetId="6" r:id="rId6"/>
+    <sheet name="Impasti" sheetId="6" r:id="rId2"/>
+    <sheet name="Pizze" sheetId="2" r:id="rId3"/>
+    <sheet name="Hamburger" sheetId="3" r:id="rId4"/>
+    <sheet name="Bibite" sheetId="4" r:id="rId5"/>
+    <sheet name="Dolci" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="242">
   <si>
     <t>Nome</t>
   </si>
@@ -708,12 +708,6 @@
   </si>
   <si>
     <t>Pomodoro san marzano D.O.P., acciughe, olio evo, basilico</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>8.5</t>
   </si>
   <si>
     <t>6.00</t>
@@ -1225,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1239,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -1253,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -1267,7 +1261,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -1281,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1295,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -1309,7 +1303,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1323,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -1337,7 +1331,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -1351,7 +1345,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
@@ -1365,7 +1359,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -1379,7 +1373,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1393,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -1407,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -1418,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -1431,11 +1425,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1542,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
         <v>140</v>
@@ -1481,7 +1556,7 @@
         <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
         <v>139</v>
@@ -1495,7 +1570,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1509,7 +1584,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
@@ -1523,7 +1598,7 @@
         <v>217</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>141</v>
@@ -1537,7 +1612,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
         <v>151</v>
@@ -1551,7 +1626,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>142</v>
@@ -1565,7 +1640,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>143</v>
@@ -1579,7 +1654,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>144</v>
@@ -1593,7 +1668,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -1607,7 +1682,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
         <v>152</v>
@@ -1621,7 +1696,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
         <v>146</v>
@@ -1635,7 +1710,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
         <v>153</v>
@@ -1649,7 +1724,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
         <v>157</v>
@@ -1663,7 +1738,7 @@
         <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>154</v>
@@ -1677,7 +1752,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D17" t="s">
         <v>155</v>
@@ -1691,7 +1766,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
@@ -1705,7 +1780,7 @@
         <v>114</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>147</v>
@@ -1719,7 +1794,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
         <v>156</v>
@@ -1733,7 +1808,7 @@
         <v>116</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
@@ -1747,7 +1822,7 @@
         <v>117</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>149</v>
@@ -1761,7 +1836,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
         <v>150</v>
@@ -1775,7 +1850,7 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
         <v>159</v>
@@ -1789,7 +1864,7 @@
         <v>120</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
         <v>160</v>
@@ -1803,7 +1878,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>161</v>
@@ -1817,7 +1892,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>162</v>
@@ -1831,7 +1906,7 @@
         <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" t="s">
         <v>163</v>
@@ -1845,7 +1920,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
         <v>164</v>
@@ -1859,7 +1934,7 @@
         <v>125</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>165</v>
@@ -1873,7 +1948,7 @@
         <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
         <v>166</v>
@@ -1887,7 +1962,7 @@
         <v>127</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
         <v>167</v>
@@ -1901,7 +1976,7 @@
         <v>128</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
         <v>168</v>
@@ -1915,7 +1990,7 @@
         <v>129</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
         <v>169</v>
@@ -1929,7 +2004,7 @@
         <v>130</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>170</v>
@@ -1943,7 +2018,7 @@
         <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
         <v>171</v>
@@ -1957,7 +2032,7 @@
         <v>132</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
         <v>172</v>
@@ -1971,7 +2046,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
         <v>173</v>
@@ -1985,7 +2060,7 @@
         <v>134</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
         <v>174</v>
@@ -1999,7 +2074,7 @@
         <v>135</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
         <v>175</v>
@@ -2013,7 +2088,7 @@
         <v>136</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
         <v>176</v>
@@ -2027,7 +2102,7 @@
         <v>137</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
         <v>177</v>
@@ -2042,11 +2117,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2078,7 +2153,7 @@
         <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>204</v>
@@ -2092,7 +2167,7 @@
         <v>192</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>205</v>
@@ -2106,7 +2181,7 @@
         <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
         <v>206</v>
@@ -2120,7 +2195,7 @@
         <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>207</v>
@@ -2134,7 +2209,7 @@
         <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>208</v>
@@ -2148,7 +2223,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
         <v>176</v>
@@ -2162,7 +2237,7 @@
         <v>197</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>209</v>
@@ -2176,7 +2251,7 @@
         <v>198</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
         <v>210</v>
@@ -2190,7 +2265,7 @@
         <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
@@ -2204,7 +2279,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
         <v>212</v>
@@ -2218,7 +2293,7 @@
         <v>201</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
         <v>213</v>
@@ -2232,7 +2307,7 @@
         <v>202</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>214</v>
@@ -2246,7 +2321,7 @@
         <v>203</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>215</v>
@@ -2260,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2292,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2343,86 +2418,11 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/prodotti.xlsx
+++ b/prodotti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmont\Desktop\Development\PrivateRepo\burgerpizzatemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14995BB-1611-4067-8CC0-FF921A01D2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB35AC-29D6-4BCA-B6C7-A787983AB688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5475" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipasti" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -878,10 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1187,7 +1184,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DF2A-0A06-4380-9DED-0895814E5B90}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,16 +1486,63 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1507,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,9 +2152,6 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2119,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,9 +2368,6 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2340,7 +2378,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A4" sqref="A4:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
